--- a/patients.xlsx
+++ b/patients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E4974A-CA31-47D2-B4D2-B6DCFFD2E630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D4D11-FD7D-4671-9388-86D940801BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4080" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="4080" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients(full)" sheetId="1" r:id="rId1"/>
@@ -3307,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05ED04-686F-4927-80D3-26E93FBB5071}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">12*60</f>
+        <f t="shared" ref="C3:C11" si="0">12*60</f>
         <v>720</v>
       </c>
       <c r="D3">
@@ -3404,9 +3404,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3414,7 +3485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90920ED8-C1B7-4853-8438-2DC3BD93257B}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
